--- a/Code/Results/Cases/Case_7_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_2/res_bus/vm_pu.xlsx
@@ -445,7 +445,7 @@
         <v>1.070837508814123</v>
       </c>
       <c r="L2">
-        <v>1.06401513046428</v>
+        <v>1.064015130464281</v>
       </c>
       <c r="M2">
         <v>1.07634446240168</v>
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053336626821864</v>
+        <v>1.053336626821867</v>
       </c>
       <c r="D3">
-        <v>1.067288571427492</v>
+        <v>1.067288571427495</v>
       </c>
       <c r="E3">
-        <v>1.061004010978585</v>
+        <v>1.061004010978588</v>
       </c>
       <c r="F3">
-        <v>1.073462611987487</v>
+        <v>1.073462611987491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.072560348529167</v>
+        <v>1.072560348529168</v>
       </c>
       <c r="J3">
-        <v>1.072471828776634</v>
+        <v>1.072471828776637</v>
       </c>
       <c r="K3">
-        <v>1.07712721837874</v>
+        <v>1.077127218378743</v>
       </c>
       <c r="L3">
-        <v>1.070911590359581</v>
+        <v>1.070911590359584</v>
       </c>
       <c r="M3">
-        <v>1.08323450205361</v>
+        <v>1.083234502053613</v>
       </c>
       <c r="N3">
-        <v>1.073994861787735</v>
+        <v>1.073994861787738</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,10 +506,10 @@
         <v>1.058898129875018</v>
       </c>
       <c r="D4">
-        <v>1.071749924282245</v>
+        <v>1.071749924282244</v>
       </c>
       <c r="E4">
-        <v>1.065853710223338</v>
+        <v>1.065853710223337</v>
       </c>
       <c r="F4">
         <v>1.078301559116025</v>
@@ -521,19 +521,19 @@
         <v>1.074634222331217</v>
       </c>
       <c r="J4">
-        <v>1.076906451359022</v>
+        <v>1.076906451359021</v>
       </c>
       <c r="K4">
         <v>1.081053155989443</v>
       </c>
       <c r="L4">
-        <v>1.075217358950288</v>
+        <v>1.075217358950286</v>
       </c>
       <c r="M4">
-        <v>1.087538600597689</v>
+        <v>1.087538600597688</v>
       </c>
       <c r="N4">
-        <v>1.078435782042849</v>
+        <v>1.078435782042848</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.061192906105684</v>
+        <v>1.061192906105683</v>
       </c>
       <c r="D5">
-        <v>1.073591055966577</v>
+        <v>1.073591055966576</v>
       </c>
       <c r="E5">
-        <v>1.067855015674659</v>
+        <v>1.067855015674657</v>
       </c>
       <c r="F5">
-        <v>1.080299006560376</v>
+        <v>1.080299006560375</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.075486261755397</v>
+        <v>1.075486261755396</v>
       </c>
       <c r="J5">
-        <v>1.078734822941752</v>
+        <v>1.078734822941751</v>
       </c>
       <c r="K5">
-        <v>1.082671227128416</v>
+        <v>1.082671227128415</v>
       </c>
       <c r="L5">
-        <v>1.076992263639679</v>
+        <v>1.076992263639677</v>
       </c>
       <c r="M5">
-        <v>1.089313362163062</v>
+        <v>1.089313362163061</v>
       </c>
       <c r="N5">
-        <v>1.080266750122943</v>
+        <v>1.080266750122942</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,7 +585,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.061575751876399</v>
+        <v>1.061575751876398</v>
       </c>
       <c r="D6">
         <v>1.073898232845893</v>
@@ -606,16 +606,16 @@
         <v>1.079039770644715</v>
       </c>
       <c r="K6">
-        <v>1.082941065148298</v>
+        <v>1.082941065148297</v>
       </c>
       <c r="L6">
         <v>1.07728827350297</v>
       </c>
       <c r="M6">
-        <v>1.089609379799493</v>
+        <v>1.089609379799492</v>
       </c>
       <c r="N6">
-        <v>1.080572130886623</v>
+        <v>1.080572130886622</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.058928959149808</v>
+        <v>1.05892895914981</v>
       </c>
       <c r="D7">
-        <v>1.071774658019275</v>
+        <v>1.071774658019276</v>
       </c>
       <c r="E7">
-        <v>1.065880596044209</v>
+        <v>1.065880596044211</v>
       </c>
       <c r="F7">
-        <v>1.078328390841071</v>
+        <v>1.078328390841072</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.074645683745001</v>
+        <v>1.074645683745002</v>
       </c>
       <c r="J7">
-        <v>1.076931020459244</v>
+        <v>1.076931020459245</v>
       </c>
       <c r="K7">
-        <v>1.081074901437855</v>
+        <v>1.081074901437856</v>
       </c>
       <c r="L7">
-        <v>1.075241210940185</v>
+        <v>1.075241210940186</v>
       </c>
       <c r="M7">
-        <v>1.087562448523402</v>
+        <v>1.087562448523403</v>
       </c>
       <c r="N7">
-        <v>1.078460386034011</v>
+        <v>1.078460386034013</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047490640532228</v>
+        <v>1.047490640532225</v>
       </c>
       <c r="D8">
-        <v>1.062600383876261</v>
+        <v>1.062600383876259</v>
       </c>
       <c r="E8">
-        <v>1.055907306725111</v>
+        <v>1.055907306725109</v>
       </c>
       <c r="F8">
-        <v>1.06837929300797</v>
+        <v>1.068379293007968</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.070367704982592</v>
+        <v>1.070367704982591</v>
       </c>
       <c r="J8">
-        <v>1.067805533719855</v>
+        <v>1.067805533719852</v>
       </c>
       <c r="K8">
-        <v>1.072994253829192</v>
+        <v>1.07299425382919</v>
       </c>
       <c r="L8">
-        <v>1.066379709174933</v>
+        <v>1.066379709174931</v>
       </c>
       <c r="M8">
-        <v>1.078706334244477</v>
+        <v>1.078706334244474</v>
       </c>
       <c r="N8">
-        <v>1.069321940056744</v>
+        <v>1.069321940056741</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,7 +708,7 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025705049399662</v>
+        <v>1.025705049399663</v>
       </c>
       <c r="D9">
         <v>1.04514728705642</v>
@@ -717,7 +717,7 @@
         <v>1.036927837154792</v>
       </c>
       <c r="F9">
-        <v>1.049467450457295</v>
+        <v>1.049467450457296</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,19 +726,19 @@
         <v>1.062099636015263</v>
       </c>
       <c r="J9">
-        <v>1.050381644574122</v>
+        <v>1.050381644574123</v>
       </c>
       <c r="K9">
-        <v>1.057548014107157</v>
+        <v>1.057548014107158</v>
       </c>
       <c r="L9">
-        <v>1.04944890778629</v>
+        <v>1.049448907786291</v>
       </c>
       <c r="M9">
         <v>1.061805881692278</v>
       </c>
       <c r="N9">
-        <v>1.051873306989876</v>
+        <v>1.051873306989877</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009841417523757</v>
+        <v>1.009841417523753</v>
       </c>
       <c r="D10">
-        <v>1.032462522616751</v>
+        <v>1.032462522616748</v>
       </c>
       <c r="E10">
-        <v>1.023126301110928</v>
+        <v>1.023126301110925</v>
       </c>
       <c r="F10">
-        <v>1.035731652006993</v>
+        <v>1.035731652006989</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056001960597318</v>
+        <v>1.056001960597316</v>
       </c>
       <c r="J10">
-        <v>1.037669940407684</v>
+        <v>1.037669940407681</v>
       </c>
       <c r="K10">
-        <v>1.046269390813446</v>
+        <v>1.046269390813443</v>
       </c>
       <c r="L10">
-        <v>1.03709019072511</v>
+        <v>1.037090190725107</v>
       </c>
       <c r="M10">
-        <v>1.049484399254173</v>
+        <v>1.04948439925417</v>
       </c>
       <c r="N10">
-        <v>1.039143550745468</v>
+        <v>1.039143550745465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -796,10 +796,10 @@
         <v>1.02667076749795</v>
       </c>
       <c r="E11">
-        <v>1.016822077880648</v>
+        <v>1.016822077880649</v>
       </c>
       <c r="F11">
-        <v>1.029461858260891</v>
+        <v>1.029461858260892</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>1.031853190854435</v>
       </c>
       <c r="K11">
-        <v>1.041106649985046</v>
+        <v>1.041106649985047</v>
       </c>
       <c r="L11">
         <v>1.031433577428384</v>
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9998286450131231</v>
+        <v>0.999828645013125</v>
       </c>
       <c r="D12">
-        <v>1.024469365575628</v>
+        <v>1.024469365575629</v>
       </c>
       <c r="E12">
-        <v>1.014425429016124</v>
+        <v>1.014425429016126</v>
       </c>
       <c r="F12">
-        <v>1.027079004712546</v>
+        <v>1.027079004712547</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052127405053872</v>
+        <v>1.052127405053874</v>
       </c>
       <c r="J12">
-        <v>1.029640258660768</v>
+        <v>1.02964025866077</v>
       </c>
       <c r="K12">
-        <v>1.039142320953025</v>
+        <v>1.039142320953026</v>
       </c>
       <c r="L12">
-        <v>1.02928138244173</v>
+        <v>1.029281382441732</v>
       </c>
       <c r="M12">
-        <v>1.041705173751401</v>
+        <v>1.041705173751402</v>
       </c>
       <c r="N12">
-        <v>1.031102465929455</v>
+        <v>1.031102465929457</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -875,34 +875,34 @@
         <v>1.000423513337978</v>
       </c>
       <c r="D13">
-        <v>1.024943932183946</v>
+        <v>1.024943932183947</v>
       </c>
       <c r="E13">
-        <v>1.01494210808895</v>
+        <v>1.014942108088951</v>
       </c>
       <c r="F13">
-        <v>1.027592677097836</v>
+        <v>1.027592677097837</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052358079375465</v>
+        <v>1.052358079375466</v>
       </c>
       <c r="J13">
-        <v>1.030117404613768</v>
+        <v>1.030117404613769</v>
       </c>
       <c r="K13">
-        <v>1.039565872280772</v>
+        <v>1.039565872280773</v>
       </c>
       <c r="L13">
-        <v>1.029745440349843</v>
+        <v>1.029745440349844</v>
       </c>
       <c r="M13">
         <v>1.042167347315688</v>
       </c>
       <c r="N13">
-        <v>1.031580289484437</v>
+        <v>1.031580289484438</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002360968204393</v>
+        <v>1.002360968204388</v>
       </c>
       <c r="D14">
-        <v>1.026489853450954</v>
+        <v>1.02648985345095</v>
       </c>
       <c r="E14">
-        <v>1.016625128013087</v>
+        <v>1.016625128013084</v>
       </c>
       <c r="F14">
-        <v>1.029266027472894</v>
+        <v>1.029266027472891</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053108968541161</v>
+        <v>1.05310896854116</v>
       </c>
       <c r="J14">
-        <v>1.031671371107103</v>
+        <v>1.031671371107099</v>
       </c>
       <c r="K14">
-        <v>1.0409452599486</v>
+        <v>1.040945259948597</v>
       </c>
       <c r="L14">
-        <v>1.031256751594721</v>
+        <v>1.031256751594717</v>
       </c>
       <c r="M14">
-        <v>1.043672631276367</v>
+        <v>1.043672631276363</v>
       </c>
       <c r="N14">
-        <v>1.033136462788436</v>
+        <v>1.033136462788431</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003545905606977</v>
+        <v>1.003545905606979</v>
       </c>
       <c r="D15">
-        <v>1.027435541406626</v>
+        <v>1.027435541406627</v>
       </c>
       <c r="E15">
-        <v>1.0176546204425</v>
+        <v>1.017654620442502</v>
       </c>
       <c r="F15">
-        <v>1.030289699208982</v>
+        <v>1.030289699208984</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053567896359832</v>
+        <v>1.053567896359833</v>
       </c>
       <c r="J15">
-        <v>1.032621710278856</v>
+        <v>1.032621710278859</v>
       </c>
       <c r="K15">
-        <v>1.041788808565249</v>
+        <v>1.041788808565251</v>
       </c>
       <c r="L15">
-        <v>1.032180981112828</v>
+        <v>1.03218098111283</v>
       </c>
       <c r="M15">
-        <v>1.044593257844947</v>
+        <v>1.044593257844948</v>
       </c>
       <c r="N15">
-        <v>1.034088151550818</v>
+        <v>1.03408815155082</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010314160048243</v>
+        <v>1.01031416004824</v>
       </c>
       <c r="D16">
-        <v>1.032840179369642</v>
+        <v>1.03284017936964</v>
       </c>
       <c r="E16">
-        <v>1.023537314800192</v>
+        <v>1.02353731480019</v>
       </c>
       <c r="F16">
-        <v>1.036140515395692</v>
+        <v>1.036140515395689</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056184441100692</v>
+        <v>1.056184441100691</v>
       </c>
       <c r="J16">
-        <v>1.038048955338009</v>
+        <v>1.038048955338007</v>
       </c>
       <c r="K16">
-        <v>1.04660575931502</v>
+        <v>1.046605759315017</v>
       </c>
       <c r="L16">
-        <v>1.037458744564084</v>
+        <v>1.037458744564082</v>
       </c>
       <c r="M16">
-        <v>1.049851670105406</v>
+        <v>1.049851670105404</v>
       </c>
       <c r="N16">
-        <v>1.039523103920469</v>
+        <v>1.039523103920466</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014452216004016</v>
+        <v>1.014452216004015</v>
       </c>
       <c r="D17">
-        <v>1.03614689614234</v>
+        <v>1.036146896142339</v>
       </c>
       <c r="E17">
         <v>1.027135805155232</v>
       </c>
       <c r="F17">
-        <v>1.039720678527069</v>
+        <v>1.039720678527068</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057779857591939</v>
+        <v>1.057779857591938</v>
       </c>
       <c r="J17">
-        <v>1.041366125886783</v>
+        <v>1.041366125886782</v>
       </c>
       <c r="K17">
-        <v>1.049549493727672</v>
+        <v>1.049549493727671</v>
       </c>
       <c r="L17">
-        <v>1.04068420546191</v>
+        <v>1.040684205461909</v>
       </c>
       <c r="M17">
-        <v>1.053066347571115</v>
+        <v>1.053066347571114</v>
       </c>
       <c r="N17">
-        <v>1.042844985231907</v>
+        <v>1.042844985231906</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016829275563307</v>
+        <v>1.016829275563306</v>
       </c>
       <c r="D18">
-        <v>1.038047170735797</v>
+        <v>1.038047170735796</v>
       </c>
       <c r="E18">
-        <v>1.029203519803473</v>
+        <v>1.029203519803472</v>
       </c>
       <c r="F18">
-        <v>1.041778270315901</v>
+        <v>1.0417782703159</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.058694732649649</v>
       </c>
       <c r="J18">
-        <v>1.043271230533333</v>
+        <v>1.043271230533332</v>
       </c>
       <c r="K18">
-        <v>1.051239960356944</v>
+        <v>1.051239960356943</v>
       </c>
       <c r="L18">
-        <v>1.042536508634907</v>
+        <v>1.042536508634906</v>
       </c>
       <c r="M18">
-        <v>1.054912822869778</v>
+        <v>1.054912822869777</v>
       </c>
       <c r="N18">
-        <v>1.044752795345573</v>
+        <v>1.044752795345572</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,16 +1118,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017633773983891</v>
+        <v>1.017633773983892</v>
       </c>
       <c r="D19">
-        <v>1.038690427780598</v>
+        <v>1.038690427780599</v>
       </c>
       <c r="E19">
-        <v>1.029903419013071</v>
+        <v>1.029903419013072</v>
       </c>
       <c r="F19">
-        <v>1.04247481103064</v>
+        <v>1.042474811030641</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>1.059004091328513</v>
       </c>
       <c r="J19">
-        <v>1.043915926206583</v>
+        <v>1.043915926206584</v>
       </c>
       <c r="K19">
         <v>1.051811991665984</v>
@@ -1148,7 +1148,7 @@
         <v>1.055537716289289</v>
       </c>
       <c r="N19">
-        <v>1.045398406560627</v>
+        <v>1.045398406560628</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1162,25 +1162,25 @@
         <v>1.014012073281066</v>
       </c>
       <c r="D20">
-        <v>1.035795096756088</v>
+        <v>1.035795096756087</v>
       </c>
       <c r="E20">
         <v>1.026752989007449</v>
       </c>
       <c r="F20">
-        <v>1.039339769321398</v>
+        <v>1.039339769321397</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057610326671606</v>
+        <v>1.057610326671605</v>
       </c>
       <c r="J20">
         <v>1.041013337626753</v>
       </c>
       <c r="K20">
-        <v>1.049236438285392</v>
+        <v>1.049236438285391</v>
       </c>
       <c r="L20">
         <v>1.040341184217963</v>
@@ -1189,7 +1189,7 @@
         <v>1.052724434942015</v>
       </c>
       <c r="N20">
-        <v>1.042491695972082</v>
+        <v>1.042491695972081</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001792281795746</v>
+        <v>1.001792281795747</v>
       </c>
       <c r="D21">
-        <v>1.026036046368568</v>
+        <v>1.02603604636857</v>
       </c>
       <c r="E21">
-        <v>1.016131088781217</v>
+        <v>1.016131088781218</v>
       </c>
       <c r="F21">
-        <v>1.028774806906301</v>
+        <v>1.028774806906302</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052888630743899</v>
+        <v>1.0528886307439</v>
       </c>
       <c r="J21">
-        <v>1.031215259100217</v>
+        <v>1.031215259100219</v>
       </c>
       <c r="K21">
-        <v>1.040540394646743</v>
+        <v>1.040540394646745</v>
       </c>
       <c r="L21">
-        <v>1.030813164403913</v>
+        <v>1.030813164403914</v>
       </c>
       <c r="M21">
-        <v>1.043230795743</v>
+        <v>1.043230795743001</v>
       </c>
       <c r="N21">
-        <v>1.032679703050183</v>
+        <v>1.032679703050185</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9937308282182143</v>
+        <v>0.9937308282182111</v>
       </c>
       <c r="D22">
-        <v>1.019607147533367</v>
+        <v>1.019607147533364</v>
       </c>
       <c r="E22">
-        <v>1.009131023096827</v>
+        <v>1.009131023096824</v>
       </c>
       <c r="F22">
-        <v>1.021816434753893</v>
+        <v>1.02181643475389</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049759631008332</v>
+        <v>1.049759631008331</v>
       </c>
       <c r="J22">
-        <v>1.024748669085373</v>
+        <v>1.024748669085369</v>
       </c>
       <c r="K22">
-        <v>1.034799939223359</v>
+        <v>1.034799939223356</v>
       </c>
       <c r="L22">
-        <v>1.024523737217491</v>
+        <v>1.024523737217488</v>
       </c>
       <c r="M22">
-        <v>1.03696774851625</v>
+        <v>1.036967748516247</v>
       </c>
       <c r="N22">
-        <v>1.026203929735789</v>
+        <v>1.026203929735786</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9980428345803434</v>
+        <v>0.998042834580342</v>
       </c>
       <c r="D23">
-        <v>1.023044952757871</v>
+        <v>1.02304495275787</v>
       </c>
       <c r="E23">
-        <v>1.012874541374188</v>
+        <v>1.012874541374187</v>
       </c>
       <c r="F23">
-        <v>1.025537249426842</v>
+        <v>1.025537249426841</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051434572568727</v>
+        <v>1.051434572568726</v>
       </c>
       <c r="J23">
-        <v>1.028207795866756</v>
+        <v>1.028207795866755</v>
       </c>
       <c r="K23">
-        <v>1.037870731186198</v>
+        <v>1.037870731186197</v>
       </c>
       <c r="L23">
-        <v>1.027888186786702</v>
+        <v>1.027888186786701</v>
       </c>
       <c r="M23">
-        <v>1.040317729659701</v>
+        <v>1.0403177296597</v>
       </c>
       <c r="N23">
-        <v>1.029667968873969</v>
+        <v>1.029667968873968</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014211067427074</v>
+        <v>1.014211067427076</v>
       </c>
       <c r="D24">
-        <v>1.035954147380783</v>
+        <v>1.035954147380784</v>
       </c>
       <c r="E24">
-        <v>1.026926063218527</v>
+        <v>1.026926063218528</v>
       </c>
       <c r="F24">
-        <v>1.039511980123107</v>
+        <v>1.039511980123108</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05768697873294</v>
+        <v>1.057686978732941</v>
       </c>
       <c r="J24">
-        <v>1.041172838979771</v>
+        <v>1.041172838979772</v>
       </c>
       <c r="K24">
         <v>1.049377976305743</v>
       </c>
       <c r="L24">
-        <v>1.04049627015247</v>
+        <v>1.040496270152471</v>
       </c>
       <c r="M24">
-        <v>1.052879018520029</v>
+        <v>1.05287901852003</v>
       </c>
       <c r="N24">
-        <v>1.042651423835316</v>
+        <v>1.042651423835317</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1385,13 +1385,13 @@
         <v>1.055063551177965</v>
       </c>
       <c r="K25">
-        <v>1.061700316676602</v>
+        <v>1.061700316676603</v>
       </c>
       <c r="L25">
         <v>1.053999516880194</v>
       </c>
       <c r="M25">
-        <v>1.066345892777078</v>
+        <v>1.066345892777079</v>
       </c>
       <c r="N25">
         <v>1.056561862438119</v>

--- a/Code/Results/Cases/Case_7_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044443196323965</v>
+        <v>1.017974000937131</v>
       </c>
       <c r="D2">
-        <v>1.060157156776169</v>
+        <v>1.036856271769663</v>
       </c>
       <c r="E2">
-        <v>1.053250974365526</v>
+        <v>1.032055189065152</v>
       </c>
       <c r="F2">
-        <v>1.065730762337388</v>
+        <v>1.0433695613473</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069219918002307</v>
+        <v>1.056818965189543</v>
       </c>
       <c r="J2">
-        <v>1.065371274832261</v>
+        <v>1.039630088559162</v>
       </c>
       <c r="K2">
-        <v>1.070837508814123</v>
+        <v>1.047824952868122</v>
       </c>
       <c r="L2">
-        <v>1.064015130464281</v>
+        <v>1.043085301835544</v>
       </c>
       <c r="M2">
-        <v>1.07634446240168</v>
+        <v>1.054256029381466</v>
       </c>
       <c r="N2">
-        <v>1.066884224242316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016627564831025</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.051512315804042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053336626821867</v>
+        <v>1.022712993644935</v>
       </c>
       <c r="D3">
-        <v>1.067288571427495</v>
+        <v>1.040266177830982</v>
       </c>
       <c r="E3">
-        <v>1.061004010978588</v>
+        <v>1.035769871924992</v>
       </c>
       <c r="F3">
-        <v>1.073462611987491</v>
+        <v>1.046799999972096</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.072560348529168</v>
+        <v>1.058127000645612</v>
       </c>
       <c r="J3">
-        <v>1.072471828776637</v>
+        <v>1.04260306396636</v>
       </c>
       <c r="K3">
-        <v>1.077127218378743</v>
+        <v>1.050408518909604</v>
       </c>
       <c r="L3">
-        <v>1.070911590359584</v>
+        <v>1.045964647127572</v>
       </c>
       <c r="M3">
-        <v>1.083234502053613</v>
+        <v>1.056867137043935</v>
       </c>
       <c r="N3">
-        <v>1.073994861787738</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017656414243556</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.053578798660508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.058898129875018</v>
+        <v>1.025715984585959</v>
       </c>
       <c r="D4">
-        <v>1.071749924282244</v>
+        <v>1.04242814271276</v>
       </c>
       <c r="E4">
-        <v>1.065853710223337</v>
+        <v>1.038129305687208</v>
       </c>
       <c r="F4">
-        <v>1.078301559116025</v>
+        <v>1.048978943238424</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.074634222331217</v>
+        <v>1.058942344684996</v>
       </c>
       <c r="J4">
-        <v>1.076906451359021</v>
+        <v>1.044483988632269</v>
       </c>
       <c r="K4">
-        <v>1.081053155989443</v>
+        <v>1.052040107018312</v>
       </c>
       <c r="L4">
-        <v>1.075217358950286</v>
+        <v>1.047788333028107</v>
       </c>
       <c r="M4">
-        <v>1.087538600597688</v>
+        <v>1.058520099386636</v>
       </c>
       <c r="N4">
-        <v>1.078435782042848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018306793702655</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.05488698321336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.061192906105683</v>
+        <v>1.026963789681724</v>
       </c>
       <c r="D5">
-        <v>1.073591055966576</v>
+        <v>1.043326706608908</v>
       </c>
       <c r="E5">
-        <v>1.067855015674657</v>
+        <v>1.039110974601264</v>
       </c>
       <c r="F5">
-        <v>1.080299006560375</v>
+        <v>1.049885517036651</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.075486261755396</v>
+        <v>1.059277837754135</v>
       </c>
       <c r="J5">
-        <v>1.078734822941751</v>
+        <v>1.045264796098484</v>
       </c>
       <c r="K5">
-        <v>1.082671227128415</v>
+        <v>1.052716680137734</v>
       </c>
       <c r="L5">
-        <v>1.076992263639677</v>
+        <v>1.048545855642444</v>
       </c>
       <c r="M5">
-        <v>1.089313362163061</v>
+        <v>1.059206499785865</v>
       </c>
       <c r="N5">
-        <v>1.080266750122942</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018576641230023</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.055430212348329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.061575751876398</v>
+        <v>1.027172457589392</v>
       </c>
       <c r="D6">
-        <v>1.073898232845893</v>
+        <v>1.043476982944584</v>
       </c>
       <c r="E6">
-        <v>1.068188911867705</v>
+        <v>1.039275210634197</v>
       </c>
       <c r="F6">
-        <v>1.080632292563967</v>
+        <v>1.050037189088435</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07562819239812</v>
+        <v>1.05933374608593</v>
       </c>
       <c r="J6">
-        <v>1.079039770644715</v>
+        <v>1.045395323359059</v>
       </c>
       <c r="K6">
-        <v>1.082941065148297</v>
+        <v>1.052829739142246</v>
       </c>
       <c r="L6">
-        <v>1.07728827350297</v>
+        <v>1.048672518278072</v>
       </c>
       <c r="M6">
-        <v>1.089609379799492</v>
+        <v>1.059321257932548</v>
       </c>
       <c r="N6">
-        <v>1.080572130886622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01862174328126</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.055521033890435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05892895914981</v>
+        <v>1.02573271469833</v>
       </c>
       <c r="D7">
-        <v>1.071774658019276</v>
+        <v>1.042440189528218</v>
       </c>
       <c r="E7">
-        <v>1.065880596044211</v>
+        <v>1.038142462570615</v>
       </c>
       <c r="F7">
-        <v>1.078328390841072</v>
+        <v>1.048991093670552</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.074645683745002</v>
+        <v>1.058946855956862</v>
       </c>
       <c r="J7">
-        <v>1.076931020459245</v>
+        <v>1.044494460450233</v>
       </c>
       <c r="K7">
-        <v>1.081074901437856</v>
+        <v>1.052049183803759</v>
       </c>
       <c r="L7">
-        <v>1.075241210940186</v>
+        <v>1.047798490683635</v>
       </c>
       <c r="M7">
-        <v>1.087562448523403</v>
+        <v>1.058529304189517</v>
       </c>
       <c r="N7">
-        <v>1.078460386034013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018310413319836</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.054894268055962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047490640532225</v>
+        <v>1.019589037544723</v>
       </c>
       <c r="D8">
-        <v>1.062600383876259</v>
+        <v>1.038018071872706</v>
       </c>
       <c r="E8">
-        <v>1.055907306725109</v>
+        <v>1.033319953355738</v>
       </c>
       <c r="F8">
-        <v>1.068379293007968</v>
+        <v>1.044537528616029</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.070367704982591</v>
+        <v>1.057267544773246</v>
       </c>
       <c r="J8">
-        <v>1.067805533719852</v>
+        <v>1.040643871301179</v>
       </c>
       <c r="K8">
-        <v>1.07299425382919</v>
+        <v>1.048706559223795</v>
       </c>
       <c r="L8">
-        <v>1.066379709174931</v>
+        <v>1.044066734865738</v>
       </c>
       <c r="M8">
-        <v>1.078706334244474</v>
+        <v>1.055146202239474</v>
       </c>
       <c r="N8">
-        <v>1.069321940056741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016978512936123</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.05221681705509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025705049399663</v>
+        <v>1.00825144306388</v>
       </c>
       <c r="D9">
-        <v>1.04514728705642</v>
+        <v>1.029869898076062</v>
       </c>
       <c r="E9">
-        <v>1.036927837154792</v>
+        <v>1.024466923846087</v>
       </c>
       <c r="F9">
-        <v>1.049467450457296</v>
+        <v>1.036362795277244</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062099636015263</v>
+        <v>1.054063285666822</v>
       </c>
       <c r="J9">
-        <v>1.050381644574123</v>
+        <v>1.033516149005957</v>
       </c>
       <c r="K9">
-        <v>1.057548014107158</v>
+        <v>1.042496257613032</v>
       </c>
       <c r="L9">
-        <v>1.049448907786291</v>
+        <v>1.037175133801145</v>
       </c>
       <c r="M9">
-        <v>1.061805881692278</v>
+        <v>1.048892227975291</v>
       </c>
       <c r="N9">
-        <v>1.051873306989877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01450898522678</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047267278127247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009841417523753</v>
+        <v>1.000398828438005</v>
       </c>
       <c r="D10">
-        <v>1.032462522616748</v>
+        <v>1.024255850300884</v>
       </c>
       <c r="E10">
-        <v>1.023126301110925</v>
+        <v>1.018395057661451</v>
       </c>
       <c r="F10">
-        <v>1.035731652006989</v>
+        <v>1.030785198500857</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056001960597316</v>
+        <v>1.051796044772575</v>
       </c>
       <c r="J10">
-        <v>1.037669940407681</v>
+        <v>1.028596631566496</v>
       </c>
       <c r="K10">
-        <v>1.046269390813443</v>
+        <v>1.03820054609097</v>
       </c>
       <c r="L10">
-        <v>1.037090190725107</v>
+        <v>1.032439941003295</v>
       </c>
       <c r="M10">
-        <v>1.04948439925417</v>
+        <v>1.044620006742747</v>
       </c>
       <c r="N10">
-        <v>1.039143550745465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012816458216764</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043937224958392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002587667034138</v>
+        <v>0.997607892295978</v>
       </c>
       <c r="D11">
-        <v>1.02667076749795</v>
+        <v>1.022398261706822</v>
       </c>
       <c r="E11">
-        <v>1.016822077880649</v>
+        <v>1.016448208112136</v>
       </c>
       <c r="F11">
-        <v>1.029461858260892</v>
+        <v>1.029216500967743</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053196787854429</v>
+        <v>1.051127920604853</v>
       </c>
       <c r="J11">
-        <v>1.031853190854435</v>
+        <v>1.027080525461397</v>
       </c>
       <c r="K11">
-        <v>1.041106649985047</v>
+        <v>1.036909790122025</v>
       </c>
       <c r="L11">
-        <v>1.031433577428384</v>
+        <v>1.031066461501626</v>
       </c>
       <c r="M11">
-        <v>1.043848762898612</v>
+        <v>1.043607697321243</v>
       </c>
       <c r="N11">
-        <v>1.033318540740664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012416756033524</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043569761807329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.999828645013125</v>
+        <v>0.9968209817653269</v>
       </c>
       <c r="D12">
-        <v>1.024469365575629</v>
+        <v>1.021935166781113</v>
       </c>
       <c r="E12">
-        <v>1.014425429016126</v>
+        <v>1.015994145374921</v>
       </c>
       <c r="F12">
-        <v>1.027079004712547</v>
+        <v>1.028960209531033</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052127405053874</v>
+        <v>1.051005508074926</v>
       </c>
       <c r="J12">
-        <v>1.02964025866077</v>
+        <v>1.026760495397821</v>
       </c>
       <c r="K12">
-        <v>1.039142320953026</v>
+        <v>1.036653853385888</v>
       </c>
       <c r="L12">
-        <v>1.029281382441732</v>
+        <v>1.030821206570598</v>
       </c>
       <c r="M12">
-        <v>1.041705173751402</v>
+        <v>1.043552842842781</v>
       </c>
       <c r="N12">
-        <v>1.031102465929457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012405566019575</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043851053398936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000423513337978</v>
+        <v>0.9975324451811665</v>
       </c>
       <c r="D13">
-        <v>1.024943932183947</v>
+        <v>1.022521914877124</v>
       </c>
       <c r="E13">
-        <v>1.014942108088951</v>
+        <v>1.016665325894931</v>
       </c>
       <c r="F13">
-        <v>1.027592677097837</v>
+        <v>1.029710308867944</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052358079375466</v>
+        <v>1.051304543226856</v>
       </c>
       <c r="J13">
-        <v>1.030117404613769</v>
+        <v>1.027348600212378</v>
       </c>
       <c r="K13">
-        <v>1.039565872280773</v>
+        <v>1.037187357242134</v>
       </c>
       <c r="L13">
-        <v>1.029745440349844</v>
+        <v>1.031437074701377</v>
       </c>
       <c r="M13">
-        <v>1.042167347315688</v>
+        <v>1.044247414421825</v>
       </c>
       <c r="N13">
-        <v>1.031580289484438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01269497021966</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04467558505019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002360968204388</v>
+        <v>0.9987051799894495</v>
       </c>
       <c r="D14">
-        <v>1.02648985345095</v>
+        <v>1.023404797557093</v>
       </c>
       <c r="E14">
-        <v>1.016625128013084</v>
+        <v>1.017640781350576</v>
       </c>
       <c r="F14">
-        <v>1.029266027472891</v>
+        <v>1.030688016196931</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05310896854116</v>
+        <v>1.051702654143079</v>
       </c>
       <c r="J14">
-        <v>1.031671371107099</v>
+        <v>1.028167655573639</v>
       </c>
       <c r="K14">
-        <v>1.040945259948597</v>
+        <v>1.037914839709325</v>
       </c>
       <c r="L14">
-        <v>1.031256751594717</v>
+        <v>1.032254056867042</v>
       </c>
       <c r="M14">
-        <v>1.043672631276363</v>
+        <v>1.045069754550348</v>
       </c>
       <c r="N14">
-        <v>1.033136462788431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013031511266248</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045498198991292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003545905606979</v>
+        <v>0.999321896879759</v>
       </c>
       <c r="D15">
-        <v>1.027435541406627</v>
+        <v>1.023854546857285</v>
       </c>
       <c r="E15">
-        <v>1.017654620442502</v>
+        <v>1.018130724785616</v>
       </c>
       <c r="F15">
-        <v>1.030289699208984</v>
+        <v>1.031156473568112</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053567896359833</v>
+        <v>1.051895055222962</v>
       </c>
       <c r="J15">
-        <v>1.032621710278859</v>
+        <v>1.02857165314592</v>
       </c>
       <c r="K15">
-        <v>1.041788808565251</v>
+        <v>1.038270689507355</v>
       </c>
       <c r="L15">
-        <v>1.03218098111283</v>
+        <v>1.032648559802336</v>
       </c>
       <c r="M15">
-        <v>1.044593257844948</v>
+        <v>1.045445006787966</v>
       </c>
       <c r="N15">
-        <v>1.03408815155082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013181765605516</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045832182946648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01031416004824</v>
+        <v>1.002523259378316</v>
       </c>
       <c r="D16">
-        <v>1.03284017936964</v>
+        <v>1.026132490050174</v>
       </c>
       <c r="E16">
-        <v>1.02353731480019</v>
+        <v>1.020583368531805</v>
       </c>
       <c r="F16">
-        <v>1.036140515395689</v>
+        <v>1.033403927373621</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056184441100691</v>
+        <v>1.052822279474124</v>
       </c>
       <c r="J16">
-        <v>1.038048955338007</v>
+        <v>1.030560656115327</v>
       </c>
       <c r="K16">
-        <v>1.046605759315017</v>
+        <v>1.04001007660927</v>
       </c>
       <c r="L16">
-        <v>1.037458744564082</v>
+        <v>1.034555053128729</v>
       </c>
       <c r="M16">
-        <v>1.049851670105404</v>
+        <v>1.047160178969632</v>
       </c>
       <c r="N16">
-        <v>1.039523103920466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013847904318743</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047149317643856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014452216004015</v>
+        <v>1.00436284836824</v>
       </c>
       <c r="D17">
-        <v>1.036146896142339</v>
+        <v>1.027415633584383</v>
       </c>
       <c r="E17">
-        <v>1.027135805155232</v>
+        <v>1.021952790905818</v>
       </c>
       <c r="F17">
-        <v>1.039720678527068</v>
+        <v>1.034610719173662</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057779857591938</v>
+        <v>1.053320229441819</v>
       </c>
       <c r="J17">
-        <v>1.041366125886782</v>
+        <v>1.031654395035815</v>
       </c>
       <c r="K17">
-        <v>1.049549493727671</v>
+        <v>1.040959456709123</v>
       </c>
       <c r="L17">
-        <v>1.040684205461909</v>
+        <v>1.035586553708699</v>
       </c>
       <c r="M17">
-        <v>1.053066347571114</v>
+        <v>1.048037942304273</v>
       </c>
       <c r="N17">
-        <v>1.042844985231906</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014181540327729</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.04771475444339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016829275563306</v>
+        <v>1.005192407046213</v>
       </c>
       <c r="D18">
-        <v>1.038047170735796</v>
+        <v>1.027945737005391</v>
       </c>
       <c r="E18">
-        <v>1.029203519803472</v>
+        <v>1.022495875271215</v>
       </c>
       <c r="F18">
-        <v>1.0417782703159</v>
+        <v>1.03500086511641</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058694732649649</v>
+        <v>1.053487399838563</v>
       </c>
       <c r="J18">
-        <v>1.043271230533332</v>
+        <v>1.032060676573345</v>
       </c>
       <c r="K18">
-        <v>1.051239960356943</v>
+        <v>1.04129891694265</v>
       </c>
       <c r="L18">
-        <v>1.042536508634906</v>
+        <v>1.035937278870525</v>
       </c>
       <c r="M18">
-        <v>1.054912822869777</v>
+        <v>1.048241601770831</v>
       </c>
       <c r="N18">
-        <v>1.044752795345572</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014250309868599</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047639480305935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017633773983892</v>
+        <v>1.005097914433006</v>
       </c>
       <c r="D19">
-        <v>1.038690427780599</v>
+        <v>1.027784260612089</v>
       </c>
       <c r="E19">
-        <v>1.029903419013072</v>
+        <v>1.022279912993554</v>
       </c>
       <c r="F19">
-        <v>1.042474811030641</v>
+        <v>1.034640788687206</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.059004091328513</v>
+        <v>1.053352356035618</v>
       </c>
       <c r="J19">
-        <v>1.043915926206584</v>
+        <v>1.03183619282127</v>
       </c>
       <c r="K19">
-        <v>1.051811991665984</v>
+        <v>1.041077969713829</v>
       </c>
       <c r="L19">
-        <v>1.043163313205133</v>
+        <v>1.035662294751685</v>
       </c>
       <c r="M19">
-        <v>1.055537716289289</v>
+        <v>1.047825730862037</v>
       </c>
       <c r="N19">
-        <v>1.045398406560628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014080580632126</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046987353604825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014012073281066</v>
+        <v>1.002440873936424</v>
       </c>
       <c r="D20">
-        <v>1.035795096756087</v>
+        <v>1.025715434966708</v>
       </c>
       <c r="E20">
-        <v>1.026752989007449</v>
+        <v>1.019972478422293</v>
       </c>
       <c r="F20">
-        <v>1.039339769321397</v>
+        <v>1.032235564883184</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057610326671605</v>
+        <v>1.052391287889272</v>
       </c>
       <c r="J20">
-        <v>1.041013337626753</v>
+        <v>1.02987802716536</v>
       </c>
       <c r="K20">
-        <v>1.049236438285391</v>
+        <v>1.039320694199169</v>
       </c>
       <c r="L20">
-        <v>1.040341184217963</v>
+        <v>1.033672997609427</v>
       </c>
       <c r="M20">
-        <v>1.052724434942015</v>
+        <v>1.045734322828523</v>
       </c>
       <c r="N20">
-        <v>1.042491695972081</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01325804267308</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.04480860290484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001792281795747</v>
+        <v>0.9963880223822744</v>
       </c>
       <c r="D21">
-        <v>1.02603604636857</v>
+        <v>1.021367738175071</v>
       </c>
       <c r="E21">
-        <v>1.016131088781218</v>
+        <v>1.015266435964412</v>
       </c>
       <c r="F21">
-        <v>1.028774806906302</v>
+        <v>1.02787019157195</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0528886307439</v>
+        <v>1.050591816676795</v>
       </c>
       <c r="J21">
-        <v>1.031215259100219</v>
+        <v>1.026037538998862</v>
       </c>
       <c r="K21">
-        <v>1.040540394646745</v>
+        <v>1.035955293280038</v>
       </c>
       <c r="L21">
-        <v>1.030813164403914</v>
+        <v>1.029964240459765</v>
       </c>
       <c r="M21">
-        <v>1.043230795743001</v>
+        <v>1.042342116624243</v>
       </c>
       <c r="N21">
-        <v>1.032679703050185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011913830247636</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042083333938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9937308282182111</v>
+        <v>0.9925334063781305</v>
       </c>
       <c r="D22">
-        <v>1.019607147533364</v>
+        <v>1.018611696646478</v>
       </c>
       <c r="E22">
-        <v>1.009131023096824</v>
+        <v>1.012290794732374</v>
       </c>
       <c r="F22">
-        <v>1.02181643475389</v>
+        <v>1.025124425764864</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049759631008331</v>
+        <v>1.049442385676281</v>
       </c>
       <c r="J22">
-        <v>1.024748669085369</v>
+        <v>1.023604850211677</v>
       </c>
       <c r="K22">
-        <v>1.034799939223356</v>
+        <v>1.033823254111816</v>
       </c>
       <c r="L22">
-        <v>1.024523737217488</v>
+        <v>1.027622638399055</v>
       </c>
       <c r="M22">
-        <v>1.036967748516247</v>
+        <v>1.040214070086913</v>
       </c>
       <c r="N22">
-        <v>1.026203929735786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011069038656099</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040399129513692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.998042834580342</v>
+        <v>0.9945858696837093</v>
       </c>
       <c r="D23">
-        <v>1.02304495275787</v>
+        <v>1.02007877617376</v>
       </c>
       <c r="E23">
-        <v>1.012874541374187</v>
+        <v>1.013874394303547</v>
       </c>
       <c r="F23">
-        <v>1.025537249426841</v>
+        <v>1.026585623890194</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051434572568726</v>
+        <v>1.050055610426969</v>
       </c>
       <c r="J23">
-        <v>1.028207795866755</v>
+        <v>1.024900303942458</v>
       </c>
       <c r="K23">
-        <v>1.037870731186197</v>
+        <v>1.034958841494829</v>
       </c>
       <c r="L23">
-        <v>1.027888186786701</v>
+        <v>1.028869352500148</v>
       </c>
       <c r="M23">
-        <v>1.0403177296597</v>
+        <v>1.041347135067869</v>
       </c>
       <c r="N23">
-        <v>1.029667968873968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011518937338234</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041295874044414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014211067427076</v>
+        <v>1.002470637413494</v>
       </c>
       <c r="D24">
-        <v>1.035954147380784</v>
+        <v>1.025723462262449</v>
       </c>
       <c r="E24">
-        <v>1.026926063218528</v>
+        <v>1.019975714472033</v>
       </c>
       <c r="F24">
-        <v>1.039511980123108</v>
+        <v>1.032216652918354</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057686978732941</v>
+        <v>1.052385075293446</v>
       </c>
       <c r="J24">
-        <v>1.041172838979772</v>
+        <v>1.029873912757386</v>
       </c>
       <c r="K24">
-        <v>1.049377976305743</v>
+        <v>1.039313417857003</v>
       </c>
       <c r="L24">
-        <v>1.040496270152471</v>
+        <v>1.033660886030391</v>
       </c>
       <c r="M24">
-        <v>1.05287901852003</v>
+        <v>1.045700681442931</v>
       </c>
       <c r="N24">
-        <v>1.042651423835317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013245505071223</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044741402127532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031553341802546</v>
+        <v>1.011246900726074</v>
       </c>
       <c r="D25">
-        <v>1.04982924806247</v>
+        <v>1.032020807592803</v>
       </c>
       <c r="E25">
-        <v>1.042020281883357</v>
+        <v>1.026800163391425</v>
       </c>
       <c r="F25">
-        <v>1.054539088266166</v>
+        <v>1.038517065788679</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064332591154592</v>
+        <v>1.054921793758726</v>
       </c>
       <c r="J25">
-        <v>1.055063551177965</v>
+        <v>1.035401600833219</v>
       </c>
       <c r="K25">
-        <v>1.061700316676603</v>
+        <v>1.044141576104949</v>
       </c>
       <c r="L25">
-        <v>1.053999516880194</v>
+        <v>1.038996213898329</v>
       </c>
       <c r="M25">
-        <v>1.066345892777079</v>
+        <v>1.050545493669142</v>
       </c>
       <c r="N25">
-        <v>1.056561862438119</v>
+        <v>1.015162669319998</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048575713784214</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017974000937131</v>
+        <v>1.016267343657448</v>
       </c>
       <c r="D2">
-        <v>1.036856271769663</v>
+        <v>1.034564132815708</v>
       </c>
       <c r="E2">
-        <v>1.032055189065152</v>
+        <v>1.03057274769638</v>
       </c>
       <c r="F2">
-        <v>1.0433695613473</v>
+        <v>1.041777229151877</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056818965189543</v>
+        <v>1.055630631289948</v>
       </c>
       <c r="J2">
-        <v>1.039630088559162</v>
+        <v>1.037972153910063</v>
       </c>
       <c r="K2">
-        <v>1.047824952868122</v>
+        <v>1.045562053812922</v>
       </c>
       <c r="L2">
-        <v>1.043085301835544</v>
+        <v>1.041621973545403</v>
       </c>
       <c r="M2">
-        <v>1.054256029381466</v>
+        <v>1.052683677752046</v>
       </c>
       <c r="N2">
-        <v>1.016627564831025</v>
+        <v>1.016956423603586</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051512315804042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.050267922515735</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024048294654039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022712993644935</v>
+        <v>1.020665557309049</v>
       </c>
       <c r="D3">
-        <v>1.040266177830982</v>
+        <v>1.037600078576387</v>
       </c>
       <c r="E3">
-        <v>1.035769871924992</v>
+        <v>1.033989252810502</v>
       </c>
       <c r="F3">
-        <v>1.046799999972096</v>
+        <v>1.044925180763828</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058127000645612</v>
+        <v>1.056742440599234</v>
       </c>
       <c r="J3">
-        <v>1.04260306396636</v>
+        <v>1.040608284426426</v>
       </c>
       <c r="K3">
-        <v>1.050408518909604</v>
+        <v>1.047773442811331</v>
       </c>
       <c r="L3">
-        <v>1.045964647127572</v>
+        <v>1.044204948926579</v>
       </c>
       <c r="M3">
-        <v>1.056867137043935</v>
+        <v>1.055013778148832</v>
       </c>
       <c r="N3">
-        <v>1.017656414243556</v>
+        <v>1.017677013103396</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053578798660508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.052112013926739</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024540780412353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025715984585959</v>
+        <v>1.023455411375507</v>
       </c>
       <c r="D4">
-        <v>1.04242814271276</v>
+        <v>1.039526952480299</v>
       </c>
       <c r="E4">
-        <v>1.038129305687208</v>
+        <v>1.036161915837883</v>
       </c>
       <c r="F4">
-        <v>1.048978943238424</v>
+        <v>1.04692691409691</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058942344684996</v>
+        <v>1.057434194708231</v>
       </c>
       <c r="J4">
-        <v>1.044483988632269</v>
+        <v>1.042277577723492</v>
       </c>
       <c r="K4">
-        <v>1.052040107018312</v>
+        <v>1.049170626141368</v>
       </c>
       <c r="L4">
-        <v>1.047788333028107</v>
+        <v>1.045842641979022</v>
       </c>
       <c r="M4">
-        <v>1.058520099386636</v>
+        <v>1.056490133960157</v>
       </c>
       <c r="N4">
-        <v>1.018306793702655</v>
+        <v>1.018133087462237</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05488698321336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.05328043122561</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024849282615726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026963789681724</v>
+        <v>1.024615282181495</v>
       </c>
       <c r="D5">
-        <v>1.043326706608908</v>
+        <v>1.040328255176354</v>
       </c>
       <c r="E5">
-        <v>1.039110974601264</v>
+        <v>1.037066471238737</v>
       </c>
       <c r="F5">
-        <v>1.049885517036651</v>
+        <v>1.047760258098691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.059277837754135</v>
+        <v>1.05771850134985</v>
       </c>
       <c r="J5">
-        <v>1.045264796098484</v>
+        <v>1.042970860211389</v>
       </c>
       <c r="K5">
-        <v>1.052716680137734</v>
+        <v>1.049750123538295</v>
       </c>
       <c r="L5">
-        <v>1.048545855642444</v>
+        <v>1.046523292176077</v>
       </c>
       <c r="M5">
-        <v>1.059206499785865</v>
+        <v>1.057103480396361</v>
       </c>
       <c r="N5">
-        <v>1.018576641230023</v>
+        <v>1.018322443834661</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055430212348329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.053765845239706</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024976593143498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027172457589392</v>
+        <v>1.024809280703426</v>
       </c>
       <c r="D6">
-        <v>1.043476982944584</v>
+        <v>1.040462290885973</v>
       </c>
       <c r="E6">
-        <v>1.039275210634197</v>
+        <v>1.037217839939716</v>
       </c>
       <c r="F6">
-        <v>1.050037189088435</v>
+        <v>1.04789970712711</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05933374608593</v>
+        <v>1.057765859369456</v>
       </c>
       <c r="J6">
-        <v>1.045395323359059</v>
+        <v>1.043086774399154</v>
       </c>
       <c r="K6">
-        <v>1.052829739142246</v>
+        <v>1.049846967269346</v>
       </c>
       <c r="L6">
-        <v>1.048672518278072</v>
+        <v>1.046637123141407</v>
       </c>
       <c r="M6">
-        <v>1.059321257932548</v>
+        <v>1.057206040671582</v>
       </c>
       <c r="N6">
-        <v>1.01862174328126</v>
+        <v>1.018354099988044</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055521033890435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.053847013358219</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02499783078305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02573271469833</v>
+        <v>1.023482352844082</v>
       </c>
       <c r="D7">
-        <v>1.042440189528218</v>
+        <v>1.039546225333039</v>
       </c>
       <c r="E7">
-        <v>1.038142462570615</v>
+        <v>1.036183907258488</v>
       </c>
       <c r="F7">
-        <v>1.048991093670552</v>
+        <v>1.046946024242882</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058946855956862</v>
+        <v>1.057442552514924</v>
       </c>
       <c r="J7">
-        <v>1.044494460450233</v>
+        <v>1.042297993553043</v>
       </c>
       <c r="K7">
-        <v>1.052049183803759</v>
+        <v>1.049186838300806</v>
       </c>
       <c r="L7">
-        <v>1.047798490683635</v>
+        <v>1.045861528645062</v>
       </c>
       <c r="M7">
-        <v>1.058529304189517</v>
+        <v>1.056506215544127</v>
       </c>
       <c r="N7">
-        <v>1.018310413319836</v>
+        <v>1.018165302783283</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054894268055962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.053293158500458</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024853863943963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019589037544723</v>
+        <v>1.017800829978638</v>
       </c>
       <c r="D8">
-        <v>1.038018071872706</v>
+        <v>1.03562452698581</v>
       </c>
       <c r="E8">
-        <v>1.033319953355738</v>
+        <v>1.031766025066998</v>
       </c>
       <c r="F8">
-        <v>1.044537528616029</v>
+        <v>1.042873154574445</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057267544773246</v>
+        <v>1.056026206158107</v>
       </c>
       <c r="J8">
-        <v>1.040643871301179</v>
+        <v>1.038904974173246</v>
       </c>
       <c r="K8">
-        <v>1.048706559223795</v>
+        <v>1.046342631084704</v>
       </c>
       <c r="L8">
-        <v>1.044066734865738</v>
+        <v>1.042532233335789</v>
       </c>
       <c r="M8">
-        <v>1.055146202239474</v>
+        <v>1.053502086200583</v>
       </c>
       <c r="N8">
-        <v>1.016978512936123</v>
+        <v>1.017292670623451</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.05221681705509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.050915629025747</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024225844410119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00825144306388</v>
+        <v>1.007302267946114</v>
       </c>
       <c r="D9">
-        <v>1.029869898076062</v>
+        <v>1.02838733532773</v>
       </c>
       <c r="E9">
-        <v>1.024466923846087</v>
+        <v>1.023645165371351</v>
       </c>
       <c r="F9">
-        <v>1.036362795277244</v>
+        <v>1.035389755826518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054063285666822</v>
+        <v>1.053298575691187</v>
       </c>
       <c r="J9">
-        <v>1.033516149005957</v>
+        <v>1.032599773563346</v>
       </c>
       <c r="K9">
-        <v>1.042496257613032</v>
+        <v>1.041036045361964</v>
       </c>
       <c r="L9">
-        <v>1.037175133801145</v>
+        <v>1.036365920807621</v>
       </c>
       <c r="M9">
-        <v>1.048892227975291</v>
+        <v>1.047933615747218</v>
       </c>
       <c r="N9">
-        <v>1.01450898522678</v>
+        <v>1.015578252257826</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047267278127247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046508607467842</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023029722090874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000398828438005</v>
+        <v>1.000094019763352</v>
       </c>
       <c r="D10">
-        <v>1.024255850300884</v>
+        <v>1.023449476477845</v>
       </c>
       <c r="E10">
-        <v>1.018395057661451</v>
+        <v>1.018132224339406</v>
       </c>
       <c r="F10">
-        <v>1.030785198500857</v>
+        <v>1.030333642414632</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051796044772575</v>
+        <v>1.05138402358066</v>
       </c>
       <c r="J10">
-        <v>1.028596631566496</v>
+        <v>1.028303907902762</v>
       </c>
       <c r="K10">
-        <v>1.03820054609097</v>
+        <v>1.037407868959777</v>
       </c>
       <c r="L10">
-        <v>1.032439941003295</v>
+        <v>1.032181635640804</v>
       </c>
       <c r="M10">
-        <v>1.044620006742747</v>
+        <v>1.044175992483487</v>
       </c>
       <c r="N10">
-        <v>1.012816458216764</v>
+        <v>1.014533424657257</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043937224958392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043585840651648</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022210482349054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.997607892295978</v>
+        <v>0.997552079432227</v>
       </c>
       <c r="D11">
-        <v>1.022398261706822</v>
+        <v>1.021842837639025</v>
       </c>
       <c r="E11">
-        <v>1.016448208112136</v>
+        <v>1.016392333822569</v>
       </c>
       <c r="F11">
-        <v>1.029216500967743</v>
+        <v>1.028961374904993</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051127920604853</v>
+        <v>1.050846994284325</v>
       </c>
       <c r="J11">
-        <v>1.027080525461397</v>
+        <v>1.027027050542856</v>
       </c>
       <c r="K11">
-        <v>1.036909790122025</v>
+        <v>1.036364260311725</v>
       </c>
       <c r="L11">
-        <v>1.031066461501626</v>
+        <v>1.031011597118724</v>
       </c>
       <c r="M11">
-        <v>1.043607697321243</v>
+        <v>1.043357036658625</v>
       </c>
       <c r="N11">
-        <v>1.012416756033524</v>
+        <v>1.014499630574914</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043569761807329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.043371492305537</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022038703579751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9968209817653269</v>
+        <v>0.9968188064043526</v>
       </c>
       <c r="D12">
-        <v>1.021935166781113</v>
+        <v>1.021436111500535</v>
       </c>
       <c r="E12">
-        <v>1.015994145374921</v>
+        <v>1.015977052326001</v>
       </c>
       <c r="F12">
-        <v>1.028960209531033</v>
+        <v>1.028747452036497</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051005508074926</v>
+        <v>1.050754105490834</v>
       </c>
       <c r="J12">
-        <v>1.026760495397821</v>
+        <v>1.026758412941786</v>
       </c>
       <c r="K12">
-        <v>1.036653853385888</v>
+        <v>1.036163838659362</v>
       </c>
       <c r="L12">
-        <v>1.030821206570598</v>
+        <v>1.030804427710875</v>
       </c>
       <c r="M12">
-        <v>1.043552842842781</v>
+        <v>1.043343870134619</v>
       </c>
       <c r="N12">
-        <v>1.012405566019575</v>
+        <v>1.014592341722296</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043851053398936</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.043685813926606</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02203928793739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9975324451811665</v>
+        <v>0.9974200332196572</v>
       </c>
       <c r="D13">
-        <v>1.022521914877124</v>
+        <v>1.02192037318417</v>
       </c>
       <c r="E13">
-        <v>1.016665325894931</v>
+        <v>1.016546335458129</v>
       </c>
       <c r="F13">
-        <v>1.029710308867944</v>
+        <v>1.029412640487208</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051304543226856</v>
+        <v>1.050999784344957</v>
       </c>
       <c r="J13">
-        <v>1.027348600212378</v>
+        <v>1.027240962577341</v>
       </c>
       <c r="K13">
-        <v>1.037187357242134</v>
+        <v>1.036596661499266</v>
       </c>
       <c r="L13">
-        <v>1.031437074701377</v>
+        <v>1.031320260662144</v>
       </c>
       <c r="M13">
-        <v>1.044247414421825</v>
+        <v>1.043955014270136</v>
       </c>
       <c r="N13">
-        <v>1.01269497021966</v>
+        <v>1.014752222155611</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04467558505019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044444435173157</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022172863029216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9987051799894495</v>
+        <v>0.9984438906876699</v>
       </c>
       <c r="D14">
-        <v>1.023404797557093</v>
+        <v>1.022661797244261</v>
       </c>
       <c r="E14">
-        <v>1.017640781350576</v>
+        <v>1.017389495375034</v>
       </c>
       <c r="F14">
-        <v>1.030688016196931</v>
+        <v>1.030275378500848</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051702654143079</v>
+        <v>1.051324163243465</v>
       </c>
       <c r="J14">
-        <v>1.028167655573639</v>
+        <v>1.027917296026776</v>
       </c>
       <c r="K14">
-        <v>1.037914839709325</v>
+        <v>1.037185061702575</v>
       </c>
       <c r="L14">
-        <v>1.032254056867042</v>
+        <v>1.032007306009857</v>
       </c>
       <c r="M14">
-        <v>1.045069754550348</v>
+        <v>1.04466432324239</v>
       </c>
       <c r="N14">
-        <v>1.013031511266248</v>
+        <v>1.014895457967676</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045498198991292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045177737973059</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022326394736224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.999321896879759</v>
+        <v>0.9989891498955754</v>
       </c>
       <c r="D15">
-        <v>1.023854546857285</v>
+        <v>1.023042721312467</v>
       </c>
       <c r="E15">
-        <v>1.018130724785616</v>
+        <v>1.017817166668205</v>
       </c>
       <c r="F15">
-        <v>1.031156473568112</v>
+        <v>1.030688460862888</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051895055222962</v>
+        <v>1.051480666765647</v>
       </c>
       <c r="J15">
-        <v>1.02857165314592</v>
+        <v>1.028252698126282</v>
       </c>
       <c r="K15">
-        <v>1.038270689507355</v>
+        <v>1.037473197460359</v>
       </c>
       <c r="L15">
-        <v>1.032648559802336</v>
+        <v>1.032340615440074</v>
       </c>
       <c r="M15">
-        <v>1.045445006787966</v>
+        <v>1.044985102957551</v>
       </c>
       <c r="N15">
-        <v>1.013181765605516</v>
+        <v>1.014950420828859</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045832182946648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045468675237174</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022395437817001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002523259378316</v>
+        <v>1.001860457914511</v>
       </c>
       <c r="D16">
-        <v>1.026132490050174</v>
+        <v>1.024995206336826</v>
       </c>
       <c r="E16">
-        <v>1.020583368531805</v>
+        <v>1.019987043934272</v>
       </c>
       <c r="F16">
-        <v>1.033403927373621</v>
+        <v>1.032677631700793</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052822279474124</v>
+        <v>1.052237999394702</v>
       </c>
       <c r="J16">
-        <v>1.030560656115327</v>
+        <v>1.029923905535537</v>
       </c>
       <c r="K16">
-        <v>1.04001007660927</v>
+        <v>1.038891971047901</v>
       </c>
       <c r="L16">
-        <v>1.034555053128729</v>
+        <v>1.033968919292691</v>
       </c>
       <c r="M16">
-        <v>1.047160178969632</v>
+        <v>1.046445903760788</v>
       </c>
       <c r="N16">
-        <v>1.013847904318743</v>
+        <v>1.015180677947533</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047149317643856</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.046584738661386</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022708136275926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00436284836824</v>
+        <v>1.003537872683017</v>
       </c>
       <c r="D17">
-        <v>1.027415633584383</v>
+        <v>1.026112261464646</v>
       </c>
       <c r="E17">
-        <v>1.021952790905818</v>
+        <v>1.021219289558353</v>
       </c>
       <c r="F17">
-        <v>1.034610719173662</v>
+        <v>1.033755163304619</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053320229441819</v>
+        <v>1.052649180454636</v>
       </c>
       <c r="J17">
-        <v>1.031654395035815</v>
+        <v>1.030860771279128</v>
       </c>
       <c r="K17">
-        <v>1.040959456709123</v>
+        <v>1.039677431323596</v>
       </c>
       <c r="L17">
-        <v>1.035586553708699</v>
+        <v>1.034865223001944</v>
       </c>
       <c r="M17">
-        <v>1.048037942304273</v>
+        <v>1.047196142057448</v>
       </c>
       <c r="N17">
-        <v>1.014181540327729</v>
+        <v>1.015311872147094</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04771475444339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.047049310902722</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022868285516626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005192407046213</v>
+        <v>1.004320692646826</v>
       </c>
       <c r="D18">
-        <v>1.027945737005391</v>
+        <v>1.02658836024187</v>
       </c>
       <c r="E18">
-        <v>1.022495875271215</v>
+        <v>1.021726216497102</v>
       </c>
       <c r="F18">
-        <v>1.03500086511641</v>
+        <v>1.034105802265505</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053487399838563</v>
+        <v>1.052788058344554</v>
       </c>
       <c r="J18">
-        <v>1.032060676573345</v>
+        <v>1.031221457337272</v>
       </c>
       <c r="K18">
-        <v>1.04129891694265</v>
+        <v>1.039963401296953</v>
       </c>
       <c r="L18">
-        <v>1.035937278870525</v>
+        <v>1.035180176986272</v>
       </c>
       <c r="M18">
-        <v>1.048241601770831</v>
+        <v>1.047360695434866</v>
       </c>
       <c r="N18">
-        <v>1.014250309868599</v>
+        <v>1.015323066150515</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047639480305935</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.046942979678816</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022902312544121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005097914433006</v>
+        <v>1.004276548232338</v>
       </c>
       <c r="D19">
-        <v>1.027784260612089</v>
+        <v>1.026469526315045</v>
       </c>
       <c r="E19">
-        <v>1.022279912993554</v>
+        <v>1.021559442384284</v>
       </c>
       <c r="F19">
-        <v>1.034640788687206</v>
+        <v>1.033782866989663</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053352356035618</v>
+        <v>1.052675158746674</v>
       </c>
       <c r="J19">
-        <v>1.03183619282127</v>
+        <v>1.031045272020134</v>
       </c>
       <c r="K19">
-        <v>1.041077969713829</v>
+        <v>1.039784304336397</v>
       </c>
       <c r="L19">
-        <v>1.035662294751685</v>
+        <v>1.034953521449865</v>
       </c>
       <c r="M19">
-        <v>1.047825730862037</v>
+        <v>1.046981317524654</v>
       </c>
       <c r="N19">
-        <v>1.014080580632126</v>
+        <v>1.015205135414896</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046987353604825</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.04631949126382</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022818902035544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002440873936424</v>
+        <v>1.001934485288545</v>
       </c>
       <c r="D20">
-        <v>1.025715434966708</v>
+        <v>1.024707618383394</v>
       </c>
       <c r="E20">
-        <v>1.019972478422293</v>
+        <v>1.019534696940111</v>
       </c>
       <c r="F20">
-        <v>1.032235564883184</v>
+        <v>1.031624561509612</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052391287889272</v>
+        <v>1.051874128698072</v>
       </c>
       <c r="J20">
-        <v>1.02987802716536</v>
+        <v>1.02939103890623</v>
       </c>
       <c r="K20">
-        <v>1.039320694199169</v>
+        <v>1.03832949513599</v>
       </c>
       <c r="L20">
-        <v>1.033672997609427</v>
+        <v>1.033242534456421</v>
       </c>
       <c r="M20">
-        <v>1.045734322828523</v>
+        <v>1.045133226306787</v>
       </c>
       <c r="N20">
-        <v>1.01325804267308</v>
+        <v>1.014726555104002</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04480860290484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.044332901228247</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022416891720019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9963880223822744</v>
+        <v>0.9965564850699374</v>
       </c>
       <c r="D21">
-        <v>1.021367738175071</v>
+        <v>1.021016477682519</v>
       </c>
       <c r="E21">
-        <v>1.015266435964412</v>
+        <v>1.015416638518406</v>
       </c>
       <c r="F21">
-        <v>1.02787019157195</v>
+        <v>1.027786987833303</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050591816676795</v>
+        <v>1.050417380387006</v>
       </c>
       <c r="J21">
-        <v>1.026037538998862</v>
+        <v>1.026198887094921</v>
       </c>
       <c r="K21">
-        <v>1.035955293280038</v>
+        <v>1.035610333559695</v>
       </c>
       <c r="L21">
-        <v>1.029964240459765</v>
+        <v>1.030111708182027</v>
       </c>
       <c r="M21">
-        <v>1.042342116624243</v>
+        <v>1.042260380476355</v>
       </c>
       <c r="N21">
-        <v>1.011913830247636</v>
+        <v>1.01428254113713</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042083333938</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.042018645395998</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02180234038434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9925334063781305</v>
+        <v>0.9931318962790913</v>
       </c>
       <c r="D22">
-        <v>1.018611696646478</v>
+        <v>1.018678610148962</v>
       </c>
       <c r="E22">
-        <v>1.012290794732374</v>
+        <v>1.012815375902979</v>
       </c>
       <c r="F22">
-        <v>1.025124425764864</v>
+        <v>1.025377586204889</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049442385676281</v>
+        <v>1.049485845868656</v>
       </c>
       <c r="J22">
-        <v>1.023604850211677</v>
+        <v>1.024176525381423</v>
       </c>
       <c r="K22">
-        <v>1.033823254111816</v>
+        <v>1.033888904689764</v>
       </c>
       <c r="L22">
-        <v>1.027622638399055</v>
+        <v>1.028137162054326</v>
       </c>
       <c r="M22">
-        <v>1.040214070086913</v>
+        <v>1.040462532342676</v>
       </c>
       <c r="N22">
-        <v>1.011069038656099</v>
+        <v>1.014000782190712</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040399129513692</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.040595770730915</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021415017571058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9945858696837093</v>
+        <v>0.9949360126323762</v>
       </c>
       <c r="D23">
-        <v>1.02007877617376</v>
+        <v>1.019908195381804</v>
       </c>
       <c r="E23">
-        <v>1.013874394303547</v>
+        <v>1.014182438705302</v>
       </c>
       <c r="F23">
-        <v>1.026585623890194</v>
+        <v>1.026645874582364</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050055610426969</v>
+        <v>1.049975257641071</v>
       </c>
       <c r="J23">
-        <v>1.024900303942458</v>
+        <v>1.025235239810037</v>
       </c>
       <c r="K23">
-        <v>1.034958841494829</v>
+        <v>1.034791395176896</v>
       </c>
       <c r="L23">
-        <v>1.028869352500148</v>
+        <v>1.029171649251547</v>
       </c>
       <c r="M23">
-        <v>1.041347135067869</v>
+        <v>1.041406297127948</v>
       </c>
       <c r="N23">
-        <v>1.011518937338234</v>
+        <v>1.01410471184932</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041295874044414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.041342696795124</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021616281365398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002470637413494</v>
+        <v>1.001966979689162</v>
       </c>
       <c r="D24">
-        <v>1.025723462262449</v>
+        <v>1.024717406282307</v>
       </c>
       <c r="E24">
-        <v>1.019975714472033</v>
+        <v>1.019541057189679</v>
       </c>
       <c r="F24">
-        <v>1.032216652918354</v>
+        <v>1.031607542234545</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052385075293446</v>
+        <v>1.051868822925028</v>
       </c>
       <c r="J24">
-        <v>1.029873912757386</v>
+        <v>1.029389522023077</v>
       </c>
       <c r="K24">
-        <v>1.039313417857003</v>
+        <v>1.038323928763655</v>
       </c>
       <c r="L24">
-        <v>1.033660886030391</v>
+        <v>1.033233485447222</v>
       </c>
       <c r="M24">
-        <v>1.045700681442931</v>
+        <v>1.04510143474672</v>
       </c>
       <c r="N24">
-        <v>1.013245505071223</v>
+        <v>1.014715106029979</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044741402127532</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.044267141161358</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022409802683028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011246900726074</v>
+        <v>1.010058890307959</v>
       </c>
       <c r="D25">
-        <v>1.032020807592803</v>
+        <v>1.030284937046894</v>
       </c>
       <c r="E25">
-        <v>1.026800163391425</v>
+        <v>1.02577037793294</v>
       </c>
       <c r="F25">
-        <v>1.038517065788679</v>
+        <v>1.037349564430785</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054921793758726</v>
+        <v>1.054024709752634</v>
       </c>
       <c r="J25">
-        <v>1.035401600833219</v>
+        <v>1.034252410740098</v>
       </c>
       <c r="K25">
-        <v>1.044141576104949</v>
+        <v>1.042430629674237</v>
       </c>
       <c r="L25">
-        <v>1.038996213898329</v>
+        <v>1.037981392756218</v>
       </c>
       <c r="M25">
-        <v>1.050545493669142</v>
+        <v>1.049394479913984</v>
       </c>
       <c r="N25">
-        <v>1.015162669319998</v>
+        <v>1.015996225328682</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048575713784214</v>
+        <v>1.047664773068419</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023345200584857</v>
       </c>
     </row>
   </sheetData>
